--- a/animations/fragment-skid-and-reverse.xlsx
+++ b/animations/fragment-skid-and-reverse.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10410"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:11_{E8F30516-19EE-384C-90CF-945CC12F2973}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A932873-C712-4CFC-A6F9-AC1A8D36EDB2}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="800" yWindow="460" windowWidth="49220" windowHeight="28340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="795" yWindow="465" windowWidth="49215" windowHeight="28335" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,10 +17,6 @@
     </ext>
   </extLst>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -432,18 +428,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BN40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AK14" zoomScale="296" zoomScaleNormal="296" workbookViewId="0">
-      <selection activeCell="BA28" sqref="BA28"/>
+    <sheetView tabSelected="1" zoomScale="266" zoomScaleNormal="266" workbookViewId="0">
+      <selection activeCell="AX1" sqref="AX1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="20" width="2.1640625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="2.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="66" width="2.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="20" width="2.140625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="2.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="66" width="2.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:66" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>1</v>
       </c>
@@ -643,7 +639,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:66" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -672,7 +668,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:66" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>1</v>
       </c>
@@ -704,7 +700,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:66" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:66" x14ac:dyDescent="0.25">
       <c r="C4">
         <v>1</v>
       </c>
@@ -736,7 +732,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:66" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:66" x14ac:dyDescent="0.25">
       <c r="F5">
         <v>1</v>
       </c>
@@ -768,7 +764,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:66" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:66" x14ac:dyDescent="0.25">
       <c r="H6">
         <v>1</v>
       </c>
@@ -806,7 +802,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:66" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:66" x14ac:dyDescent="0.25">
       <c r="I7">
         <v>1</v>
       </c>
@@ -856,7 +852,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:66" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:66" x14ac:dyDescent="0.25">
       <c r="J8">
         <v>1</v>
       </c>
@@ -921,7 +917,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:66" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:66" x14ac:dyDescent="0.25">
       <c r="O9">
         <v>1</v>
       </c>
@@ -992,7 +988,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:66" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:66" x14ac:dyDescent="0.25">
       <c r="T10">
         <v>1</v>
       </c>
@@ -1063,7 +1059,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:66" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:66" x14ac:dyDescent="0.25">
       <c r="AA11">
         <v>1</v>
       </c>
@@ -1122,7 +1118,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:66" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:66" x14ac:dyDescent="0.25">
       <c r="AH12">
         <v>1</v>
       </c>
@@ -1166,7 +1162,10 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:66" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:66" x14ac:dyDescent="0.25">
+      <c r="AL13">
+        <v>1</v>
+      </c>
       <c r="AM13">
         <v>1</v>
       </c>
@@ -1174,486 +1173,425 @@
         <v>1</v>
       </c>
       <c r="AO13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AP13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AQ13">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AR13">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AS13">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AT13">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AU13">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AV13">
         <v>8</v>
       </c>
-      <c r="AW13">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="14" spans="1:66" x14ac:dyDescent="0.2">
+    </row>
+    <row r="14" spans="1:66" x14ac:dyDescent="0.25">
+      <c r="AO14">
+        <v>1</v>
+      </c>
+      <c r="AP14">
+        <v>1</v>
+      </c>
       <c r="AQ14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AR14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AS14">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AT14">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AU14">
-        <v>4</v>
-      </c>
-      <c r="AV14">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="AV14" s="2">
+        <v>8</v>
       </c>
       <c r="AW14">
-        <v>7</v>
-      </c>
-      <c r="AX14" s="2">
-        <v>8</v>
-      </c>
-      <c r="AY14" s="3"/>
-    </row>
-    <row r="15" spans="1:66" x14ac:dyDescent="0.2">
-      <c r="AQ15" s="2"/>
-      <c r="AR15" s="3"/>
+        <v>3</v>
+      </c>
+      <c r="AX14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:66" x14ac:dyDescent="0.25">
+      <c r="AO15" s="2"/>
+      <c r="AP15" s="3"/>
+      <c r="AS15">
+        <v>1</v>
+      </c>
+      <c r="AT15">
+        <v>2</v>
+      </c>
       <c r="AU15">
-        <v>1</v>
-      </c>
-      <c r="AV15">
-        <v>2</v>
-      </c>
-      <c r="AW15">
-        <v>4</v>
-      </c>
-      <c r="AX15" s="2">
-        <v>6</v>
-      </c>
-      <c r="AY15" s="3">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="16" spans="1:66" x14ac:dyDescent="0.2">
-      <c r="AQ16" s="2"/>
-      <c r="AR16" s="3"/>
-      <c r="AV16">
-        <v>1</v>
-      </c>
-      <c r="AW16">
-        <v>3</v>
-      </c>
-      <c r="AX16" s="2">
-        <v>5</v>
-      </c>
-      <c r="AY16" s="3">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="17" spans="43:61" x14ac:dyDescent="0.2">
-      <c r="AQ17" s="2"/>
-      <c r="AR17" s="3"/>
-      <c r="AW17" s="2">
-        <v>1</v>
-      </c>
-      <c r="AX17" s="3">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="AV15" s="2">
+        <v>6</v>
+      </c>
+      <c r="AW15" s="3">
+        <v>8</v>
+      </c>
+      <c r="AX15">
+        <v>5</v>
+      </c>
+      <c r="AY15">
+        <v>3</v>
+      </c>
+      <c r="AZ15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:66" x14ac:dyDescent="0.25">
+      <c r="AO16" s="2"/>
+      <c r="AP16" s="3"/>
+      <c r="AT16">
+        <v>1</v>
+      </c>
+      <c r="AU16">
+        <v>1</v>
+      </c>
+      <c r="AV16" s="2">
+        <v>3</v>
+      </c>
+      <c r="AW16" s="3">
+        <v>8</v>
+      </c>
+      <c r="AX16">
+        <v>6</v>
+      </c>
+      <c r="AY16">
+        <v>4</v>
+      </c>
+      <c r="AZ16">
+        <v>2</v>
+      </c>
+      <c r="BA16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="41:58" x14ac:dyDescent="0.25">
+      <c r="AO17" s="2"/>
+      <c r="AP17" s="3"/>
+      <c r="AU17" s="2">
+        <v>1</v>
+      </c>
+      <c r="AV17" s="3">
+        <v>2</v>
+      </c>
+      <c r="AW17">
+        <v>8</v>
+      </c>
+      <c r="AX17">
+        <v>7</v>
       </c>
       <c r="AY17">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="18" spans="43:61" x14ac:dyDescent="0.2">
-      <c r="AQ18" s="3"/>
-      <c r="AR18" s="2"/>
-      <c r="AW18" s="3"/>
-      <c r="AX18" s="2">
-        <v>1</v>
+        <v>5</v>
+      </c>
+      <c r="AZ17">
+        <v>4</v>
+      </c>
+      <c r="BA17">
+        <v>3</v>
+      </c>
+      <c r="BB17">
+        <v>2</v>
+      </c>
+      <c r="BC17">
+        <v>1</v>
+      </c>
+      <c r="BD17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="41:58" x14ac:dyDescent="0.25">
+      <c r="AO18" s="3"/>
+      <c r="AP18" s="2"/>
+      <c r="AU18" s="3"/>
+      <c r="AV18" s="2">
+        <v>1</v>
+      </c>
+      <c r="AW18">
+        <v>8</v>
+      </c>
+      <c r="AX18">
+        <v>8</v>
       </c>
       <c r="AY18">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="19" spans="43:61" x14ac:dyDescent="0.2">
-      <c r="AQ19" s="3"/>
-      <c r="AR19" s="2"/>
-      <c r="AW19" s="3"/>
-      <c r="AX19" s="2"/>
+        <v>6</v>
+      </c>
+      <c r="AZ18">
+        <v>5</v>
+      </c>
+      <c r="BA18">
+        <v>4</v>
+      </c>
+      <c r="BB18">
+        <v>3</v>
+      </c>
+      <c r="BC18">
+        <v>2</v>
+      </c>
+      <c r="BD18">
+        <v>2</v>
+      </c>
+      <c r="BE18">
+        <v>1</v>
+      </c>
+      <c r="BF18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="41:58" x14ac:dyDescent="0.25">
+      <c r="AO19" s="3"/>
+      <c r="AP19" s="2"/>
+      <c r="AU19" s="3"/>
+      <c r="AV19" s="2"/>
+      <c r="AW19">
+        <v>8</v>
+      </c>
+      <c r="AX19">
+        <v>8</v>
+      </c>
       <c r="AY19">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="20" spans="43:61" x14ac:dyDescent="0.2">
-      <c r="AQ20" s="3"/>
-      <c r="AR20" s="2"/>
-      <c r="AW20" s="3"/>
+        <v>4</v>
+      </c>
+      <c r="AZ19">
+        <v>4</v>
+      </c>
+      <c r="BA19">
+        <v>3</v>
+      </c>
+      <c r="BB19">
+        <v>2</v>
+      </c>
+      <c r="BC19">
+        <v>1</v>
+      </c>
+      <c r="BD19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="41:58" x14ac:dyDescent="0.25">
+      <c r="AO20" s="3"/>
+      <c r="AP20" s="2"/>
+      <c r="AU20" s="3"/>
+      <c r="AW20">
+        <v>8</v>
+      </c>
+      <c r="AX20">
+        <v>8</v>
+      </c>
       <c r="AY20">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="21" spans="43:61" x14ac:dyDescent="0.2">
-      <c r="AQ21" s="3"/>
-      <c r="AR21" s="2"/>
-      <c r="AW21" s="3"/>
+        <v>3</v>
+      </c>
+      <c r="AZ20">
+        <v>3</v>
+      </c>
+      <c r="BA20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="41:58" x14ac:dyDescent="0.25">
+      <c r="AO21" s="3"/>
+      <c r="AP21" s="2"/>
+      <c r="AU21" s="3"/>
+      <c r="AW21">
+        <v>8</v>
+      </c>
+      <c r="AX21">
+        <v>8</v>
+      </c>
       <c r="AY21">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="AZ21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="43:61" x14ac:dyDescent="0.2">
-      <c r="AQ22" s="3"/>
-      <c r="AR22" s="2"/>
-      <c r="AW22" s="3"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="41:58" x14ac:dyDescent="0.25">
+      <c r="AO22" s="3"/>
+      <c r="AP22" s="2"/>
+      <c r="AU22" s="3"/>
+      <c r="AW22">
+        <v>8</v>
+      </c>
+      <c r="AX22">
+        <v>8</v>
+      </c>
       <c r="AY22">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="AZ22">
-        <v>3</v>
-      </c>
-      <c r="BA22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="43:61" x14ac:dyDescent="0.2">
-      <c r="AR23" s="2"/>
-      <c r="AY23">
-        <v>8</v>
-      </c>
-      <c r="AZ23">
-        <v>5</v>
-      </c>
-      <c r="BA23">
-        <v>3</v>
-      </c>
-      <c r="BB23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="43:61" x14ac:dyDescent="0.2">
-      <c r="AR24" s="2"/>
-      <c r="AY24">
-        <v>8</v>
-      </c>
-      <c r="AZ24">
-        <v>6</v>
-      </c>
-      <c r="BA24">
-        <v>4</v>
-      </c>
-      <c r="BB24">
-        <v>2</v>
-      </c>
-      <c r="BC24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="43:61" x14ac:dyDescent="0.2">
-      <c r="AR25" s="2"/>
-      <c r="AY25">
-        <v>8</v>
-      </c>
-      <c r="AZ25">
-        <v>6</v>
-      </c>
-      <c r="BA25">
-        <v>5</v>
-      </c>
-      <c r="BB25">
-        <v>4</v>
-      </c>
-      <c r="BC25">
-        <v>3</v>
-      </c>
-      <c r="BD25">
-        <v>2</v>
-      </c>
-      <c r="BE25">
-        <v>1</v>
-      </c>
-      <c r="BF25">
-        <v>1</v>
-      </c>
-      <c r="BG25">
-        <v>1</v>
-      </c>
-      <c r="BH25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="43:61" x14ac:dyDescent="0.2">
-      <c r="AR26" s="2"/>
-      <c r="AY26">
-        <v>8</v>
-      </c>
-      <c r="AZ26">
-        <v>7</v>
-      </c>
-      <c r="BA26">
-        <v>5</v>
-      </c>
-      <c r="BB26">
-        <v>4</v>
-      </c>
-      <c r="BC26">
-        <v>3</v>
-      </c>
-      <c r="BD26">
-        <v>2</v>
-      </c>
-      <c r="BE26">
-        <v>2</v>
-      </c>
-      <c r="BF26">
-        <v>1</v>
-      </c>
-      <c r="BG26">
-        <v>1</v>
-      </c>
-      <c r="BH26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="43:61" x14ac:dyDescent="0.2">
-      <c r="AR27" s="2"/>
-      <c r="AY27">
-        <v>8</v>
-      </c>
-      <c r="AZ27">
-        <v>8</v>
-      </c>
-      <c r="BA27">
-        <v>6</v>
-      </c>
-      <c r="BB27">
-        <v>5</v>
-      </c>
-      <c r="BC27">
-        <v>4</v>
-      </c>
-      <c r="BD27">
-        <v>3</v>
-      </c>
-      <c r="BE27">
-        <v>3</v>
-      </c>
-      <c r="BF27">
-        <v>2</v>
-      </c>
-      <c r="BG27">
-        <v>2</v>
-      </c>
-      <c r="BH27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="43:61" x14ac:dyDescent="0.2">
-      <c r="AY28">
-        <v>8</v>
-      </c>
-      <c r="AZ28">
-        <v>8</v>
-      </c>
-      <c r="BA28">
-        <v>5</v>
-      </c>
-      <c r="BB28">
-        <v>5</v>
-      </c>
-      <c r="BC28">
-        <v>4</v>
-      </c>
-      <c r="BD28">
-        <v>3</v>
-      </c>
-      <c r="BE28">
-        <v>2</v>
-      </c>
-      <c r="BF28">
-        <v>2</v>
-      </c>
-      <c r="BG28">
-        <v>1</v>
-      </c>
-      <c r="BH28">
-        <v>1</v>
-      </c>
-      <c r="BI28">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="43:61" x14ac:dyDescent="0.2">
-      <c r="AY29">
-        <v>8</v>
-      </c>
-      <c r="AZ29">
-        <v>8</v>
-      </c>
-      <c r="BA29">
-        <v>4</v>
-      </c>
-      <c r="BB29">
-        <v>4</v>
-      </c>
-      <c r="BC29">
-        <v>3</v>
-      </c>
-      <c r="BD29">
-        <v>2</v>
-      </c>
-      <c r="BE29">
-        <v>1</v>
-      </c>
-      <c r="BF29">
-        <v>1</v>
-      </c>
-      <c r="BG29">
-        <v>1</v>
-      </c>
-      <c r="BH29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="43:61" x14ac:dyDescent="0.2">
-      <c r="AY30">
-        <v>8</v>
-      </c>
-      <c r="AZ30">
-        <v>8</v>
-      </c>
-      <c r="BA30">
-        <v>4</v>
-      </c>
-      <c r="BB30">
-        <v>4</v>
-      </c>
-      <c r="BC30">
-        <v>2</v>
-      </c>
-      <c r="BD30">
-        <v>1</v>
-      </c>
-      <c r="BE30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="43:61" x14ac:dyDescent="0.2">
-      <c r="AY31">
-        <v>8</v>
-      </c>
-      <c r="AZ31">
-        <v>8</v>
-      </c>
-      <c r="BA31">
-        <v>3</v>
-      </c>
-      <c r="BB31">
-        <v>3</v>
-      </c>
-      <c r="BC31">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="43:61" x14ac:dyDescent="0.2">
-      <c r="AY32">
-        <v>8</v>
-      </c>
-      <c r="AZ32">
-        <v>8</v>
-      </c>
-      <c r="BA32">
-        <v>2</v>
-      </c>
-      <c r="BB32">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="33" spans="51:54" x14ac:dyDescent="0.2">
-      <c r="AY33">
-        <v>8</v>
-      </c>
-      <c r="AZ33">
-        <v>8</v>
-      </c>
-      <c r="BA33">
-        <v>1</v>
-      </c>
-      <c r="BB33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="51:54" x14ac:dyDescent="0.2">
-      <c r="AY34">
-        <v>8</v>
-      </c>
-      <c r="AZ34">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="35" spans="51:54" x14ac:dyDescent="0.2">
-      <c r="AY35">
-        <v>8</v>
-      </c>
-      <c r="AZ35">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="36" spans="51:54" x14ac:dyDescent="0.2">
-      <c r="AY36">
-        <v>8</v>
-      </c>
-      <c r="AZ36">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="37" spans="51:54" x14ac:dyDescent="0.2">
-      <c r="AY37">
-        <v>8</v>
-      </c>
-      <c r="AZ37">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="38" spans="51:54" x14ac:dyDescent="0.2">
-      <c r="AY38">
-        <v>8</v>
-      </c>
-      <c r="AZ38">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="39" spans="51:54" x14ac:dyDescent="0.2">
-      <c r="AY39">
-        <v>8</v>
-      </c>
-      <c r="AZ39">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="40" spans="51:54" x14ac:dyDescent="0.2">
-      <c r="AY40">
-        <v>8</v>
-      </c>
-      <c r="AZ40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="41:58" x14ac:dyDescent="0.25">
+      <c r="AP23" s="2"/>
+      <c r="AW23">
+        <v>8</v>
+      </c>
+      <c r="AX23">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="41:58" x14ac:dyDescent="0.25">
+      <c r="AP24" s="2"/>
+      <c r="AW24">
+        <v>8</v>
+      </c>
+      <c r="AX24">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="41:58" x14ac:dyDescent="0.25">
+      <c r="AP25" s="2"/>
+      <c r="AW25">
+        <v>8</v>
+      </c>
+      <c r="AX25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" spans="41:58" x14ac:dyDescent="0.25">
+      <c r="AP26" s="2"/>
+      <c r="AW26">
+        <v>8</v>
+      </c>
+      <c r="AX26">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27" spans="41:58" x14ac:dyDescent="0.25">
+      <c r="AP27" s="2"/>
+      <c r="AW27">
+        <v>8</v>
+      </c>
+      <c r="AX27">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28" spans="41:58" x14ac:dyDescent="0.25">
+      <c r="AW28">
+        <v>8</v>
+      </c>
+      <c r="AX28">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29" spans="41:58" x14ac:dyDescent="0.25">
+      <c r="AW29">
+        <v>8</v>
+      </c>
+      <c r="AX29">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="41:58" x14ac:dyDescent="0.25">
+      <c r="AW30">
+        <v>8</v>
+      </c>
+      <c r="AX30">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31" spans="41:58" x14ac:dyDescent="0.25">
+      <c r="AW31">
+        <v>8</v>
+      </c>
+      <c r="AX31">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32" spans="41:58" x14ac:dyDescent="0.25">
+      <c r="AW32">
+        <v>8</v>
+      </c>
+      <c r="AX32">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33" spans="49:50" x14ac:dyDescent="0.25">
+      <c r="AW33">
+        <v>8</v>
+      </c>
+      <c r="AX33">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34" spans="49:50" x14ac:dyDescent="0.25">
+      <c r="AW34">
+        <v>8</v>
+      </c>
+      <c r="AX34">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35" spans="49:50" x14ac:dyDescent="0.25">
+      <c r="AW35">
+        <v>8</v>
+      </c>
+      <c r="AX35">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36" spans="49:50" x14ac:dyDescent="0.25">
+      <c r="AW36">
+        <v>8</v>
+      </c>
+      <c r="AX36">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37" spans="49:50" x14ac:dyDescent="0.25">
+      <c r="AW37">
+        <v>8</v>
+      </c>
+      <c r="AX37">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38" spans="49:50" x14ac:dyDescent="0.25">
+      <c r="AW38">
+        <v>8</v>
+      </c>
+      <c r="AX38">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39" spans="49:50" x14ac:dyDescent="0.25">
+      <c r="AW39">
+        <v>8</v>
+      </c>
+      <c r="AX39">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40" spans="49:50" x14ac:dyDescent="0.25">
+      <c r="AW40">
+        <v>8</v>
+      </c>
+      <c r="AX40">
         <v>8</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A17:AQ21 A12:AP16 A1:XFD2 H3:XFD3 AP14:AP22 AS14:AW27 AS12:XFD21 AW13:AW22 AZ13:BD27 A4:XFD11 AI12:AT12 AK13:BD13 AQ14:AV14 A22:XFD1048576 AW17:BT64">
+  <conditionalFormatting sqref="A1:XFD2 H3:XFD3 A4:XFD11 AI12:AT12 AW17:BT64 AS12:XFD21 A17:AQ21 A12:AP16 AV13:AW22 AK13:BD13 AV17:BI42 AR13:BI21 AY13:BD27 AN14:AP22 AO14:AV14 A22:XFD1048576 AU17:BH40 AQ14:BH21 AQ14:BC27">
     <cfRule type="containsBlanks" dxfId="1" priority="5">
       <formula>LEN(TRIM(A1))=0</formula>
     </cfRule>
